--- a/test-cases/TestCase.xlsx
+++ b/test-cases/TestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -111,12 +111,6 @@
     <t>Authorization method redirect to instagram link</t>
   </si>
   <si>
-    <t>CallBack received the code from instagram redirection</t>
-  </si>
-  <si>
-    <t>CallBack tried to get accestoken through post method</t>
-  </si>
-  <si>
     <t>On localhost2:4200 will be redirected</t>
   </si>
   <si>
@@ -132,24 +126,6 @@
     <t>Redirect to Angular WebApi</t>
   </si>
   <si>
-    <t>Code errorr 400 invalid link</t>
-  </si>
-  <si>
-    <t>Empty string</t>
-  </si>
-  <si>
-    <t>AccesToken is empty</t>
-  </si>
-  <si>
-    <t>Auth,CallBack() and AccesToken function are called</t>
-  </si>
-  <si>
-    <t>Redirect,Code, AccesToken</t>
-  </si>
-  <si>
-    <t>Site can't be reached, bad link</t>
-  </si>
-  <si>
     <t>test the get user info data functionality</t>
   </si>
   <si>
@@ -253,6 +229,63 @@
   </si>
   <si>
     <t>ChosenPhoto variable was null</t>
+  </si>
+  <si>
+    <t>Not, link was wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becomes string </t>
+  </si>
+  <si>
+    <t>if empty try to Auth again()</t>
+  </si>
+  <si>
+    <t>if code not empty try to get accesstoken</t>
+  </si>
+  <si>
+    <t>if accessToken good go to localhost2</t>
+  </si>
+  <si>
+    <t>Code is good</t>
+  </si>
+  <si>
+    <t>Code is empty</t>
+  </si>
+  <si>
+    <t>AccessToken retrieved</t>
+  </si>
+  <si>
+    <t>AccessToken null</t>
+  </si>
+  <si>
+    <t>Code not good</t>
+  </si>
+  <si>
+    <t>Redirect to localhost</t>
+  </si>
+  <si>
+    <t>AccessToken empty</t>
+  </si>
+  <si>
+    <t>Returned accessToken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code not good </t>
+  </si>
+  <si>
+    <t>Faill</t>
+  </si>
+  <si>
+    <t>GetAccessToken() post method</t>
+  </si>
+  <si>
+    <t>Method Authorization() get method</t>
+  </si>
+  <si>
+    <t>Authorization received the code from instagram red</t>
+  </si>
+  <si>
+    <t>Authorization tried to get accestoken through post</t>
   </si>
 </sst>
 </file>
@@ -316,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -491,115 +524,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF00B050"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color rgb="FF00B050"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color rgb="FF00B050"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF00B050"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF00B050"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF00B050"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF00B050"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -748,13 +695,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -798,49 +758,56 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1123,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,24 +1115,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1176,22 +1143,22 @@
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="46">
         <v>1</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="51">
         <v>1</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1202,44 +1169,44 @@
       <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32">
+      <c r="D4" s="31"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19">
         <v>2</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="48">
         <v>2</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="51">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="53" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1250,32 +1217,32 @@
       <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="18" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="22"/>
-      <c r="E7" s="25" t="s">
-        <v>30</v>
+      <c r="D7" s="29"/>
+      <c r="E7" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1284,18 +1251,18 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="25" t="s">
-        <v>31</v>
+      <c r="D8" s="29"/>
+      <c r="E8" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -1304,14 +1271,14 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="25" t="s">
-        <v>32</v>
+      <c r="D9" s="29"/>
+      <c r="E9" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="26"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
@@ -1320,35 +1287,37 @@
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="19"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="36" t="s">
+      <c r="D11" s="46">
+        <v>3</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="37">
-        <v>2</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>26</v>
+      <c r="F11" s="51">
+        <v>1</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1358,18 +1327,18 @@
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="41" t="s">
-        <v>32</v>
-      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="19"/>
       <c r="G12" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="42"/>
+        <v>70</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
@@ -1378,12 +1347,12 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -1392,21 +1361,23 @@
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="37">
-        <v>3</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="39" t="s">
+      <c r="D14" s="46">
+        <v>4</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="40" t="s">
-        <v>26</v>
+      <c r="I14" s="28" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1416,128 +1387,150 @@
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="19"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
       <c r="G15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="42"/>
+        <v>76</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="19"/>
+        <v>41</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="19">
+        <v>3</v>
+      </c>
       <c r="G16" s="17" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="19">
+        <v>4</v>
+      </c>
       <c r="G17" s="17" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="17"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="42"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="56">
+        <v>5</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="22"/>
-      <c r="E19" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="21"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19">
+        <v>6</v>
+      </c>
       <c r="G19" s="17" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="49"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="46">
+        <v>5</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="51">
+        <v>1</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="42"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="22"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="22"/>
-      <c r="E21" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="37">
-        <v>4</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="31"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="32">
+        <v>2</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="8"/>
-      <c r="E22" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="46"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1545,24 +1538,24 @@
         <v>0</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1576,19 +1569,19 @@
       <c r="D26" s="7">
         <v>1</v>
       </c>
-      <c r="E26" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="54">
+      <c r="E26" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="43">
         <v>1</v>
       </c>
-      <c r="G26" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="54" t="s">
+      <c r="G26" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="55" t="s">
+      <c r="I26" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1597,22 +1590,22 @@
         <v>3</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="18">
+        <v>48</v>
+      </c>
+      <c r="F27" s="21">
         <v>2</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1625,16 +1618,16 @@
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="18">
+      <c r="F28" s="21">
         <v>3</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1647,32 +1640,32 @@
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="18">
+      <c r="F29" s="21">
         <v>4</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D30" s="22"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="18">
+      <c r="F30" s="21">
         <v>5</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1685,34 +1678,34 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="50"/>
+      <c r="I31" s="37"/>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D32" s="7">
         <v>2</v>
       </c>
-      <c r="E32" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="54">
+      <c r="E32" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="43">
         <v>1</v>
       </c>
-      <c r="G32" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="54" t="s">
+      <c r="G32" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="55" t="s">
+      <c r="I32" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1721,20 +1714,20 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="18">
+      <c r="F33" s="21">
         <v>2</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1743,20 +1736,20 @@
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18">
+      <c r="F34" s="21">
         <v>3</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1765,38 +1758,38 @@
         <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="50"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D36" s="7">
         <v>3</v>
       </c>
-      <c r="E36" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="54">
+      <c r="E36" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="43">
         <v>1</v>
       </c>
-      <c r="G36" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="54" t="s">
+      <c r="G36" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="55" t="s">
+      <c r="I36" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1805,20 +1798,20 @@
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="18">
+      <c r="F37" s="21">
         <v>2</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1827,44 +1820,47 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="18">
+      <c r="F38" s="21">
         <v>3</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="49">
+      <c r="A39" s="35">
         <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D39" s="8"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51">
+      <c r="E39" s="38"/>
+      <c r="F39" s="44">
         <v>4</v>
       </c>
-      <c r="G39" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="I39" s="52" t="s">
+      <c r="G39" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="39" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F40" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.1812500423855252" bottom="0.75" header="0.3" footer="0.3"/>
